--- a/biology/Médecine/Jean-René_Cruchet/Jean-René_Cruchet.xlsx
+++ b/biology/Médecine/Jean-René_Cruchet/Jean-René_Cruchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Ren%C3%A9_Cruchet</t>
+          <t>Jean-René_Cruchet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean René Cruchet, né le 21 mars 1875 à Bordeaux et mort le 14 avril 1959 dans la même ville, est un médecin pathologiste et pédiatre français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Ren%C3%A9_Cruchet</t>
+          <t>Jean-René_Cruchet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sa carrière résumée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études médicales à Bordeaux où il obtient son doctorat en 1902 et devient Chef de clinique. Il est nommé Médecin des hôpitaux en 1907 et agrégé la même année.
 En 1920 il est professeur titulaire de pathologie générale et de therapeutique. En 1926 enfin, il accède à la chaire de pédiatrie de Bordeaux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Ren%C3%A9_Cruchet</t>
+          <t>Jean-René_Cruchet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Ses travaux principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude critique sur le tic convulsif et son traitement gymnastique. Bordeaux 1901-1902.
 Traité des torticolis spasmodiques. Paris, Masson, 1907. 357 cas de torticolis sont colligés dans cette monographie devenue un classique.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Ren%C3%A9_Cruchet</t>
+          <t>Jean-René_Cruchet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maladie de Cruchet : autre nom du torticolis spasmodique.
 Maladie de von Economo-Cruchet : autre nom de l'encéphalite léthargique (ou épidémique).</t>
